--- a/sales_forecast.xlsx
+++ b/sales_forecast.xlsx
@@ -1222,457 +1222,457 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F2" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2" t="n">
+        <v>64</v>
+      </c>
+      <c r="H2" t="n">
         <v>73</v>
       </c>
-      <c r="G2" t="n">
-        <v>74</v>
-      </c>
-      <c r="H2" t="n">
-        <v>78</v>
-      </c>
       <c r="I2" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J2" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K2" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="L2" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="M2" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N2" t="n">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="O2" t="n">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="P2" t="n">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="Q2" t="n">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="R2" t="n">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="S2" t="n">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="T2" t="n">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="U2" t="n">
+        <v>213</v>
+      </c>
+      <c r="V2" t="n">
         <v>229</v>
       </c>
-      <c r="V2" t="n">
-        <v>243</v>
-      </c>
       <c r="W2" t="n">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="X2" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="Y2" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Z2" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AA2" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AB2" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AC2" t="n">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="AD2" t="n">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="AE2" t="n">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="AF2" t="n">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="AG2" t="n">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="AH2" t="n">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="AI2" t="n">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="AJ2" t="n">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="AK2" t="n">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="AL2" t="n">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="AM2" t="n">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="AN2" t="n">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="AO2" t="n">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="AP2" t="n">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="AQ2" t="n">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="AR2" t="n">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="AS2" t="n">
+        <v>483</v>
+      </c>
+      <c r="AT2" t="n">
         <v>502</v>
       </c>
-      <c r="AT2" t="n">
-        <v>527</v>
-      </c>
       <c r="AU2" t="n">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="AV2" t="n">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="AW2" t="n">
-        <v>553</v>
+        <v>506</v>
       </c>
       <c r="AX2" t="n">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="AY2" t="n">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="AZ2" t="n">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="BA2" t="n">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="BB2" t="n">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="BC2" t="n">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="BD2" t="n">
-        <v>916</v>
+        <v>894</v>
       </c>
       <c r="BE2" t="n">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="BF2" t="n">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="BG2" t="n">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="BH2" t="n">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="BI2" t="n">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="BJ2" t="n">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="BK2" t="n">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="BL2" t="n">
         <v>679</v>
       </c>
       <c r="BM2" t="n">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="BN2" t="n">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="BO2" t="n">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="BP2" t="n">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="BQ2" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="BR2" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="BS2" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="BT2" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="BU2" t="n">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="BV2" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="BW2" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BX2" t="n">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="BY2" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BZ2" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CA2" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="CB2" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="CC2" t="n">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="CD2" t="n">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="CE2" t="n">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="CF2" t="n">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="CG2" t="n">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="CH2" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="CI2" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CJ2" t="n">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CK2" t="n">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="CL2" t="n">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="CM2" t="n">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="CN2" t="n">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="CO2" t="n">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="CP2" t="n">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="CQ2" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="CR2" t="n">
         <v>326</v>
       </c>
       <c r="CS2" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="CT2" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="CU2" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="CV2" t="n">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="CW2" t="n">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="CX2" t="n">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="CY2" t="n">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="CZ2" t="n">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="DA2" t="n">
-        <v>656</v>
+        <v>753</v>
       </c>
       <c r="DB2" t="n">
-        <v>597</v>
+        <v>746</v>
       </c>
       <c r="DC2" t="n">
-        <v>555</v>
+        <v>749</v>
       </c>
       <c r="DD2" t="n">
-        <v>667</v>
+        <v>843</v>
       </c>
       <c r="DE2" t="n">
-        <v>925</v>
+        <v>998</v>
       </c>
       <c r="DF2" t="n">
-        <v>1176</v>
+        <v>1095</v>
       </c>
       <c r="DG2" t="n">
-        <v>1284</v>
+        <v>1072</v>
       </c>
       <c r="DH2" t="n">
-        <v>1270</v>
+        <v>997</v>
       </c>
       <c r="DI2" t="n">
-        <v>1273</v>
+        <v>999</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1383</v>
+        <v>1118</v>
       </c>
       <c r="DK2" t="n">
-        <v>1521</v>
+        <v>1249</v>
       </c>
       <c r="DL2" t="n">
-        <v>1522</v>
+        <v>1244</v>
       </c>
       <c r="DM2" t="n">
-        <v>1304</v>
+        <v>1056</v>
       </c>
       <c r="DN2" t="n">
-        <v>953</v>
+        <v>776</v>
       </c>
       <c r="DO2" t="n">
-        <v>628</v>
+        <v>532</v>
       </c>
       <c r="DP2" t="n">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="DQ2" t="n">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="DR2" t="n">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="DS2" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="DT2" t="n">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="DU2" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="DV2" t="n">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="DW2" t="n">
-        <v>450</v>
+        <v>386</v>
       </c>
       <c r="DX2" t="n">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="DY2" t="n">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="DZ2" t="n">
+        <v>385</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>423</v>
+      </c>
+      <c r="EB2" t="n">
         <v>438</v>
       </c>
-      <c r="EA2" t="n">
-        <v>486</v>
-      </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
+        <v>438</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>473</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>575</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>710</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>807</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>816</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>746</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>645</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>568</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>552</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>606</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>694</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>749</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>713</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>604</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>509</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>503</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>567</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>603</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>553</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>481</v>
+      </c>
+      <c r="EX2" t="n">
         <v>520</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>534</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>577</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>686</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>831</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>930</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>926</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>838</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>731</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>669</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>676</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>740</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>820</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>856</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>800</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>673</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>563</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>549</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>617</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>655</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>590</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>484</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>495</v>
       </c>
     </row>
   </sheetData>
